--- a/Data collection/daily_exchange_rates.xlsx
+++ b/Data collection/daily_exchange_rates.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>CAD</t>
+    <t>CAD/USD</t>
   </si>
   <si>
-    <t>CNY</t>
+    <t>CNY/USD</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>EUR/USD</t>
   </si>
   <si>
-    <t>GBP</t>
+    <t>GBP/USD</t>
   </si>
   <si>
-    <t>INR</t>
+    <t>INR/USD</t>
   </si>
   <si>
-    <t>JPY</t>
+    <t>JPY/USD</t>
   </si>
   <si>
-    <t>RUB</t>
+    <t>RUB/USD</t>
   </si>
   <si>
-    <t>KRW</t>
+    <t>KRW/USD</t>
   </si>
 </sst>
 </file>
